--- a/data/case1/13/Q_device_1.xlsx
+++ b/data/case1/13/Q_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0535959886305519</v>
+        <v>-0.0044275530382215976</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.053643192103066388</v>
+        <v>-0.0041450133963361873</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.027877366296295763</v>
+        <v>-0.018291144398067911</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0278721022759949</v>
+        <v>-0.021493930888234463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.02943755378381167</v>
+        <v>-0.037334577392695828</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.03020430110318896</v>
+        <v>-0.036950788652470062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.071656674575936427</v>
+        <v>-0.0049109377680854101</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.014534042003638468</v>
+        <v>-0.0049106643264613253</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.070935905377017966</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.070934448574766482</v>
       </c>
     </row>
   </sheetData>
